--- a/biology/Zoologie/Colostethus_inguinalis/Colostethus_inguinalis.xlsx
+++ b/biology/Zoologie/Colostethus_inguinalis/Colostethus_inguinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colostethus inguinalis est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colostethus inguinalis est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Colombie[1]. Elle se rencontre dans les départements de Chocó, d'Antioquia, de Córdoba et de Boyacá du niveau de la mer jusqu'à 400 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Colombie. Elle se rencontre dans les départements de Chocó, d'Antioquia, de Córdoba et de Boyacá du niveau de la mer jusqu'à 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
